--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298902.1581372948</v>
+        <v>296463.6850375474</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12201130.72095375</v>
+        <v>12201130.72095374</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>282.4605077549094</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>168.1158122680976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>119.1960612277671</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>212.6652167733024</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>302.9446243547911</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>248.291180648487</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>30.11027851002623</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>77.84724700848678</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>93.52676208877594</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.5107055231778</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>79.88066061577915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179435</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.2435806730857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983372</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>72.77126028643525</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503951</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.981557645677</v>
       </c>
       <c r="E22" t="n">
-        <v>1.294096136279104</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462248</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>144.6100405317611</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>180.9892048574046</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>190.7368854541452</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>11.56087338713365</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.006892987834567</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>3155.791869823214</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2782.326111562134</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431.1278029579779</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>431.1278029579779</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>431.1278029579779</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>431.1278029579779</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>284.2378554600675</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>284.2378554600675</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4519,19 +4519,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X4" t="n">
-        <v>651.920382101508</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.1278029579779</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559526</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559526</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1156.082344952776</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>770.2940923545314</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>359.3081875649238</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>877.8124784996427</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="C7" t="n">
-        <v>708.8762955717358</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D7" t="n">
-        <v>558.7596561594</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>410.8465625770069</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>410.8465625770069</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>243.1437259517259</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>96.92653916958366</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1758.830508009166</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1537.063892578692</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1247.961025704335</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.59460854119</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.605057643173</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.8124784996427</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2079.457471651794</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1689.318139675982</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1535.009939440012</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1245.592769403052</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1017.603218505034</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y10" t="n">
-        <v>796.8106393615039</v>
+        <v>364.5418494269123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277338</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155643</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D22" t="n">
-        <v>550.9217088032285</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888052</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908948</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057747</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2233.846631820783</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2014.245166843724</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1725.169940187922</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1470.485451982035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1181.068281945074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>953.0787310470569</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>732.2861519035267</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2014.245166843724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.169940187922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1470.485451982035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1181.068281945074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>953.0787310470569</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>732.2861519035267</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>414.4022433768874</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>414.4022433768874</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>247.2061440917674</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>105.4943129339655</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,40 +7181,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-4.763331352246503e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>57.26675306205234</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>114.6670468161915</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>181.1251564493154</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.58839950885607</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788669</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.84421273177711</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646573</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187378</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253533</v>
       </c>
       <c r="E22" t="n">
-        <v>145.1398665102901</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>36.41624546988348</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>36.41624546988362</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>34.97276993489194</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459311</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>69.70496293143188</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.36835372228709</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>980188.8422234735</v>
+        <v>980188.8422234731</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019036</v>
+        <v>335917.9865019033</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
@@ -26323,16 +26323,16 @@
         <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605025</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605024</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605028</v>
@@ -26344,16 +26344,16 @@
         <v>363215.9698605027</v>
       </c>
       <c r="M2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="O2" t="n">
-        <v>363215.9698605028</v>
-      </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47189.23934546738</v>
+        <v>47189.2393454673</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813245</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813248</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26433,7 +26433,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26448,13 +26448,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
+        <v>10557.08828678118</v>
+      </c>
+      <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="N4" t="n">
-        <v>10557.08828678116</v>
-      </c>
       <c r="O4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1147949.93913255</v>
+        <v>-1148136.332521089</v>
       </c>
       <c r="C6" t="n">
-        <v>171790.7328194021</v>
+        <v>171790.7328194016</v>
       </c>
       <c r="D6" t="n">
-        <v>171790.7328194019</v>
+        <v>171790.732819402</v>
       </c>
       <c r="E6" t="n">
-        <v>-73876.11005754072</v>
+        <v>-73910.84798297648</v>
       </c>
       <c r="F6" t="n">
-        <v>251536.3517498143</v>
+        <v>251501.6138243786</v>
       </c>
       <c r="G6" t="n">
-        <v>251536.3517498142</v>
+        <v>251501.6138243785</v>
       </c>
       <c r="H6" t="n">
-        <v>251536.3517498143</v>
+        <v>251501.6138243786</v>
       </c>
       <c r="I6" t="n">
-        <v>251536.3517498142</v>
+        <v>251501.6138243783</v>
       </c>
       <c r="J6" t="n">
-        <v>34005.14935253696</v>
+        <v>33970.41142710132</v>
       </c>
       <c r="K6" t="n">
-        <v>251536.3517498142</v>
+        <v>251501.6138243788</v>
       </c>
       <c r="L6" t="n">
-        <v>251536.3517498144</v>
+        <v>251501.6138243786</v>
       </c>
       <c r="M6" t="n">
-        <v>166481.3238143027</v>
+        <v>166446.5858888669</v>
       </c>
       <c r="N6" t="n">
-        <v>251536.3517498142</v>
+        <v>251501.6138243787</v>
       </c>
       <c r="O6" t="n">
-        <v>251536.3517498145</v>
+        <v>251501.6138243786</v>
       </c>
       <c r="P6" t="n">
-        <v>251536.3517498145</v>
+        <v>251501.6138243785</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.54563095404584</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>179.9407175711289</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>25.55895368655364</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.85778156328863</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>62.32826741621648</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>162.6305450049665</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>66.24214189981186</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>111.9217783229551</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>261.156279531907</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.2203951552913</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>172.2569827080488</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098577</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,7 +31847,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
